--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\REF_CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158943B-634C-4CA3-9F7E-07DCA357E451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -98,10 +95,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -120,9 +113,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
@@ -159,14 +149,83 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>ACME_Cred</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
+  <si>
+    <t>ACME_Login_URL</t>
+  </si>
+  <si>
+    <t>ACME_WorkItem_URL</t>
+  </si>
+  <si>
+    <t>ACME_Login_Cred</t>
+  </si>
+  <si>
+    <t>SHA1_URL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>WI5</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Work Items</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/update/</t>
+  </si>
+  <si>
+    <t>ACME_UpdateWorkItem</t>
+  </si>
+  <si>
+    <t>UpdateClientInfo URL</t>
+  </si>
+  <si>
+    <t>WorkItem</t>
+  </si>
+  <si>
+    <t>SHA1 Website</t>
+  </si>
+  <si>
+    <t>ACME Website</t>
+  </si>
+  <si>
+    <t>Email And Password to Login ACME WEB</t>
+  </si>
+  <si>
+    <t>Type Of Client</t>
+  </si>
+  <si>
+    <t>Status Of Client</t>
+  </si>
+  <si>
+    <t>REF_CalculateClientSecurityHash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +249,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,22 +284,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -239,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -584,23 +677,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -609,39 +696,140 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="24.6">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="28.2" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1610,8 +1798,14 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{A0D16661-82D5-4F4F-B8C9-6F827146BDF7}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{9D59C41B-0B20-475F-91BF-161429CE9129}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{D55D3B9A-AF70-4686-AF20-597D165C0165}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{3013EC21-916F-495A-93B3-76A81E796B44}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1620,7 +1814,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,21 +1864,21 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +1946,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2782,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2800,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\REF_CalculateClientSecurityHash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\Client Security Hash\CalculateClientSecurityHash _Part1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158943B-634C-4CA3-9F7E-07DCA357E451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B48378-47B9-4EA3-AB10-F36ED95751B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>REF_CalculateClientSecurityHash</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>REFDemo</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -677,15 +689,23 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\Client Security Hash\CalculateClientSecurityHash _Part1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\Client Security Hash\CalculateClientSecurityHash _Part2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B48378-47B9-4EA3-AB10-F36ED95751B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01A45D-9938-416F-A290-3B67B55E3843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Work Items</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>REFDemo</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -690,10 +690,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -716,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -745,10 +745,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -782,7 +782,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -790,27 +790,27 @@
         <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="28.2" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -821,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -829,10 +829,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
